--- a/excel_prueba.xlsx
+++ b/excel_prueba.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SolicitudEntregaTerrenosNaciona" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>expediente</t>
   </si>
@@ -45,244 +46,125 @@
     <t>digital_sol_entrega_terreno</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Gerardo</t>
-  </si>
-  <si>
-    <t>Fabian</t>
-  </si>
-  <si>
-    <t>PRUEBA_OFI1</t>
-  </si>
-  <si>
-    <t>PRUEBA_OFI2</t>
-  </si>
-  <si>
-    <t>PRUEBA_OFI3</t>
-  </si>
-  <si>
-    <t>Campo</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>contenido</t>
-  </si>
-  <si>
-    <t>Texto libre que se busca en los documentos</t>
-  </si>
-  <si>
-    <r>
-      <t>Puede estar vacío → Solr devuelve todos los documentos (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>*:*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>Número de resultados por página</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Controla </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>rows</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en Solr</t>
-    </r>
-  </si>
-  <si>
-    <t>numeroPagina</t>
-  </si>
-  <si>
-    <t>Página actual</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Controla </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>numeroPagina * cantidad</t>
-    </r>
-  </si>
-  <si>
-    <t>coleccion</t>
-  </si>
-  <si>
-    <t>Colección o core de Solr a consultar</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ej.: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>"SUELDOS"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>"EJERCICIO_PRESUPUESTO"</t>
-    </r>
-  </si>
-  <si>
-    <t>tipoOrdenamiento</t>
-  </si>
-  <si>
-    <t>Cómo ordenar los resultados</t>
-  </si>
-  <si>
-    <r>
-      <t>"COINCIDENCIA"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>"FECHA_ASC"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>"FECHA_DESC"</t>
-    </r>
-  </si>
-  <si>
-    <t>dePaginador</t>
-  </si>
-  <si>
-    <t>Booleano que indica si viene de paginador</t>
-  </si>
-  <si>
-    <t>Se puede ignorar para la query en Solr</t>
-  </si>
-  <si>
-    <t>filtroSeleccionado</t>
-  </si>
-  <si>
-    <t>Filtro activo en UI</t>
-  </si>
-  <si>
-    <t>Opcional, generalmente solo para la interfaz</t>
-  </si>
-  <si>
-    <t>idCompartido</t>
-  </si>
-  <si>
-    <t>ID compartido de algún objeto</t>
-  </si>
-  <si>
-    <t>Opcional, puede servir para filtros internos</t>
+    <t>franfranfran</t>
+  </si>
+  <si>
+    <t>gerageragera|</t>
+  </si>
+  <si>
+    <t>fabianfabian</t>
+  </si>
+  <si>
+    <t>OFI-CINCO</t>
+  </si>
+  <si>
+    <t>OFI-SEIS</t>
+  </si>
+  <si>
+    <t>OFI-OCHO</t>
+  </si>
+  <si>
+    <t>sp_acargo_d_investigacion_tecnicaycatastral</t>
+  </si>
+  <si>
+    <t>fec_revision_n_inventario_terreno_nal</t>
+  </si>
+  <si>
+    <t>folio_cons_inventario_terreno_nal</t>
+  </si>
+  <si>
+    <t>folio_cons_catastral</t>
+  </si>
+  <si>
+    <t>Fecha de la revisión catastral</t>
+  </si>
+  <si>
+    <t>Versión digital de la consulta al catastro</t>
+  </si>
+  <si>
+    <t>EsSuceptibledeEntrega</t>
+  </si>
+  <si>
+    <t>juan gonzale</t>
+  </si>
+  <si>
+    <t>mayra</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>FOL12</t>
+  </si>
+  <si>
+    <t>FOL323</t>
+  </si>
+  <si>
+    <t>FOL773</t>
+  </si>
+  <si>
+    <t>FOLCONS223</t>
+  </si>
+  <si>
+    <t>FOLCONS323</t>
+  </si>
+  <si>
+    <t>FOLCONS3235</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ofi_sol_inscr_a_rppfederal</t>
+  </si>
+  <si>
+    <t>sp_d_indaabin_realiza_inscr_a_rppfederal</t>
+  </si>
+  <si>
+    <t>folio_d_decreto_inscrito</t>
+  </si>
+  <si>
+    <t>fec_inscr_declaratoria_terreno_nal_rppfederal</t>
+  </si>
+  <si>
+    <t>digital_ofi_catastral</t>
+  </si>
+  <si>
+    <t>OFISOL12</t>
+  </si>
+  <si>
+    <t>OFISOL1231</t>
+  </si>
+  <si>
+    <t>OFISOL2345</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>liborio</t>
+  </si>
+  <si>
+    <t>DEC12</t>
+  </si>
+  <si>
+    <t>DEC34</t>
+  </si>
+  <si>
+    <t>DEC53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,7 +175,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,25 +199,20 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -365,24 +242,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,96 +547,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="77.25" customHeight="1">
-      <c r="A2">
-        <v>7777</v>
-      </c>
-      <c r="B2" s="2">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="5">
+        <v>9090</v>
+      </c>
+      <c r="B2" s="7">
+        <v>7665</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>45954</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="69.75" customHeight="1">
-      <c r="A3">
-        <v>8888</v>
-      </c>
-      <c r="B3" s="2">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
+        <v>8080</v>
+      </c>
+      <c r="B3" s="7">
+        <v>6768</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>45955</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="84" customHeight="1">
-      <c r="A4">
-        <v>9999</v>
-      </c>
-      <c r="B4" s="2">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
+        <v>20340</v>
+      </c>
+      <c r="B4" s="7">
+        <v>7878</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>45956</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="E8" s="1"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -762,117 +789,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
-    <col min="3" max="3" width="69.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5">
+        <v>9090</v>
+      </c>
+      <c r="B2" s="7">
+        <v>7665</v>
+      </c>
+      <c r="C2" s="12">
+        <v>99999</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E2" s="6">
+        <v>45954</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6">
+        <v>45954</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5">
+        <v>8080</v>
+      </c>
+      <c r="B3" s="7">
+        <v>6768</v>
+      </c>
+      <c r="C3" s="12">
+        <v>88888</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="6">
+        <v>45955</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6">
+        <v>45955</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5">
+        <v>20340</v>
+      </c>
+      <c r="B4" s="7">
+        <v>7878</v>
+      </c>
+      <c r="C4" s="12">
+        <v>77777</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="E4" s="6">
+        <v>45956</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="H4" s="6">
+        <v>45956</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="4"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
+        <v>9090</v>
+      </c>
+      <c r="B2" s="7">
+        <v>7665</v>
+      </c>
+      <c r="C2" s="12">
+        <v>99999</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6">
+        <v>45954</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>8080</v>
+      </c>
+      <c r="B3" s="7">
+        <v>6768</v>
+      </c>
+      <c r="C3" s="12">
+        <v>88888</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45955</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>20340</v>
+      </c>
+      <c r="B4" s="7">
+        <v>7878</v>
+      </c>
+      <c r="C4" s="12">
+        <v>77777</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45956</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
